--- a/Documentation/output.xlsx
+++ b/Documentation/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDC113-69CC-4B71-AF1F-B16A812FEB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479AF35-E416-4654-A5B4-B3B39B62B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469EA8D7-BADF-4FE6-9F5F-7436887DFADC}"/>
   </bookViews>
@@ -418,9 +418,6 @@
     <t>6 jacketSpud</t>
   </si>
   <si>
-    <t>6 quornLasagne</t>
-  </si>
-  <si>
     <t>26 chocolateCake</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>28 chocolateMousse</t>
   </si>
   <si>
-    <t>41 bananaIceCream</t>
-  </si>
-  <si>
     <t>29 beerCan</t>
   </si>
   <si>
@@ -650,6 +644,12 @@
   </si>
   <si>
     <t>litres</t>
+  </si>
+  <si>
+    <t>6 beefBurgers</t>
+  </si>
+  <si>
+    <t>29 bananaIceCream</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D68805-6F1E-4113-A128-70B3B00308D9}">
   <dimension ref="A1:BN127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,13 +1118,13 @@
         <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>104</v>
@@ -1139,13 +1139,13 @@
         <v>124</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>104</v>
@@ -1263,16 +1263,16 @@
         <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" t="s">
         <v>105</v>
@@ -1296,10 +1296,10 @@
         <v>105</v>
       </c>
       <c r="R7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1322,43 +1322,43 @@
         <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
         <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1381,43 +1381,43 @@
         <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K9" t="s">
         <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1440,43 +1440,43 @@
         <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
         <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1499,46 +1499,46 @@
         <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
         <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1558,46 +1558,46 @@
         <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
         <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1614,49 +1614,49 @@
         <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
         <v>116</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
         <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
         <v>112</v>
@@ -1709,16 +1709,16 @@
         <v>112</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1797,49 +1797,49 @@
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
         <v>118</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1862,46 +1862,46 @@
         <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s">
         <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -1921,46 +1921,46 @@
         <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s">
         <v>111</v>
       </c>
       <c r="L22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -1977,49 +1977,49 @@
         <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" t="s">
         <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2057,7 +2057,7 @@
         <v>112</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s">
         <v>112</v>
@@ -2072,16 +2072,16 @@
         <v>112</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2160,49 +2160,49 @@
         <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K28" t="s">
         <v>118</v>
       </c>
       <c r="L28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2393,75 +2393,75 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <f xml:space="preserve"> (B33 / B5)</f>
+        <f t="shared" ref="B34:S34" si="0" xml:space="preserve"> (B33 / B5)</f>
         <v>3557.6923076923076</v>
       </c>
       <c r="C34">
-        <f xml:space="preserve"> (C33 / C5)</f>
+        <f t="shared" si="0"/>
         <v>3557.6923076923076</v>
       </c>
       <c r="D34">
-        <f xml:space="preserve"> (D33 / D5)</f>
+        <f t="shared" si="0"/>
         <v>3557.6923076923076</v>
       </c>
       <c r="E34">
-        <f xml:space="preserve"> (E33 / E5)</f>
+        <f t="shared" si="0"/>
         <v>3557.6923076923076</v>
       </c>
       <c r="F34">
-        <f xml:space="preserve"> (F33 / F5)</f>
+        <f t="shared" si="0"/>
         <v>3557.6923076923076</v>
       </c>
       <c r="G34">
-        <f xml:space="preserve"> (G33 / G5)</f>
+        <f t="shared" si="0"/>
         <v>3416.6666666666665</v>
       </c>
       <c r="H34">
-        <f xml:space="preserve"> (H33 / H5)</f>
+        <f t="shared" si="0"/>
         <v>3416.6666666666665</v>
       </c>
       <c r="I34">
-        <f xml:space="preserve"> (I33 / I5)</f>
+        <f t="shared" si="0"/>
         <v>3416.6666666666665</v>
       </c>
       <c r="J34">
-        <f xml:space="preserve"> (J33 / J5)</f>
+        <f t="shared" si="0"/>
         <v>3416.6666666666665</v>
       </c>
       <c r="K34">
-        <f xml:space="preserve"> (K33 / K5)</f>
+        <f t="shared" si="0"/>
         <v>3634.6153846153848</v>
       </c>
       <c r="L34">
-        <f xml:space="preserve"> (L33 / L5)</f>
+        <f t="shared" si="0"/>
         <v>3568.9655172413795</v>
       </c>
       <c r="M34">
-        <f xml:space="preserve"> (M33 / M5)</f>
+        <f t="shared" si="0"/>
         <v>3568.9655172413795</v>
       </c>
       <c r="N34">
-        <f xml:space="preserve"> (N33 / N5)</f>
+        <f t="shared" si="0"/>
         <v>3568.9655172413795</v>
       </c>
       <c r="O34">
-        <f xml:space="preserve"> (O33 / O5)</f>
+        <f t="shared" si="0"/>
         <v>3568.9655172413795</v>
       </c>
       <c r="P34">
-        <f xml:space="preserve"> (P33 / P5)</f>
+        <f t="shared" si="0"/>
         <v>3578.125</v>
       </c>
       <c r="Q34">
-        <f xml:space="preserve"> (Q33 / Q5)</f>
+        <f t="shared" si="0"/>
         <v>3578.125</v>
       </c>
       <c r="R34">
-        <f xml:space="preserve"> (R33 / R5)</f>
+        <f t="shared" si="0"/>
         <v>3336.9565217391305</v>
       </c>
       <c r="S34">
-        <f xml:space="preserve"> (S33 / S5)</f>
+        <f t="shared" si="0"/>
         <v>3757.1428571428573</v>
       </c>
     </row>
@@ -2529,75 +2529,75 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <f xml:space="preserve"> (B35 - B33)</f>
+        <f t="shared" ref="B36:S36" si="1" xml:space="preserve"> (B35 - B33)</f>
         <v>19013</v>
       </c>
       <c r="C36">
-        <f xml:space="preserve"> (C35 - C33)</f>
+        <f t="shared" si="1"/>
         <v>3991</v>
       </c>
       <c r="D36">
-        <f xml:space="preserve"> (D35 - D33)</f>
+        <f t="shared" si="1"/>
         <v>12350</v>
       </c>
       <c r="E36">
-        <f xml:space="preserve"> (E35 - E33)</f>
+        <f t="shared" si="1"/>
         <v>37267</v>
       </c>
       <c r="F36">
-        <f xml:space="preserve"> (F35 - F33)</f>
+        <f t="shared" si="1"/>
         <v>2289</v>
       </c>
       <c r="G36">
-        <f xml:space="preserve"> (G35 - G33)</f>
+        <f t="shared" si="1"/>
         <v>57345</v>
       </c>
       <c r="H36">
-        <f xml:space="preserve"> (H35 - H33)</f>
+        <f t="shared" si="1"/>
         <v>21090</v>
       </c>
       <c r="I36">
-        <f xml:space="preserve"> (I35 - I33)</f>
+        <f t="shared" si="1"/>
         <v>12858</v>
       </c>
       <c r="J36">
-        <f xml:space="preserve"> (J35 - J33)</f>
+        <f t="shared" si="1"/>
         <v>25653</v>
       </c>
       <c r="K36">
-        <f xml:space="preserve"> (K35 - K33)</f>
+        <f t="shared" si="1"/>
         <v>4449</v>
       </c>
       <c r="L36">
-        <f xml:space="preserve"> (L35 - L33)</f>
+        <f t="shared" si="1"/>
         <v>7586</v>
       </c>
       <c r="M36">
-        <f xml:space="preserve"> (M35 - M33)</f>
+        <f t="shared" si="1"/>
         <v>27348</v>
       </c>
       <c r="N36">
-        <f xml:space="preserve"> (N35 - N33)</f>
+        <f t="shared" si="1"/>
         <v>9615</v>
       </c>
       <c r="O36">
-        <f xml:space="preserve"> (O35 - O33)</f>
+        <f t="shared" si="1"/>
         <v>48422</v>
       </c>
       <c r="P36">
-        <f xml:space="preserve"> (P35 - P33)</f>
+        <f t="shared" si="1"/>
         <v>5042</v>
       </c>
       <c r="Q36">
-        <f xml:space="preserve"> (Q35 - Q33)</f>
+        <f t="shared" si="1"/>
         <v>5875</v>
       </c>
       <c r="R36">
-        <f xml:space="preserve"> (R35 - R33)</f>
+        <f t="shared" si="1"/>
         <v>35332</v>
       </c>
       <c r="S36">
-        <f xml:space="preserve"> (S35 - S33)</f>
+        <f t="shared" si="1"/>
         <v>31743</v>
       </c>
     </row>
@@ -2668,75 +2668,75 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <f xml:space="preserve"> (B38 / B5)</f>
+        <f t="shared" ref="B39:S39" si="2" xml:space="preserve"> (B38 / B5)</f>
         <v>400.24038461538464</v>
       </c>
       <c r="C39">
-        <f xml:space="preserve"> (C38 / C5)</f>
+        <f t="shared" si="2"/>
         <v>400.24038461538464</v>
       </c>
       <c r="D39">
-        <f xml:space="preserve"> (D38 / D5)</f>
+        <f t="shared" si="2"/>
         <v>400.24038461538464</v>
       </c>
       <c r="E39">
-        <f xml:space="preserve"> (E38 / E5)</f>
+        <f t="shared" si="2"/>
         <v>400.24038461538464</v>
       </c>
       <c r="F39">
-        <f xml:space="preserve"> (F38 / F5)</f>
+        <f t="shared" si="2"/>
         <v>400.24038461538464</v>
       </c>
       <c r="G39">
-        <f xml:space="preserve"> (G38 / G5)</f>
+        <f t="shared" si="2"/>
         <v>384.375</v>
       </c>
       <c r="H39">
-        <f xml:space="preserve"> (H38 / H5)</f>
+        <f t="shared" si="2"/>
         <v>384.375</v>
       </c>
       <c r="I39">
-        <f xml:space="preserve"> (I38 / I5)</f>
+        <f t="shared" si="2"/>
         <v>384.375</v>
       </c>
       <c r="J39">
-        <f xml:space="preserve"> (J38 / J5)</f>
+        <f t="shared" si="2"/>
         <v>384.375</v>
       </c>
       <c r="K39">
-        <f xml:space="preserve"> (K38 / K5)</f>
+        <f t="shared" si="2"/>
         <v>408.89423076923077</v>
       </c>
       <c r="L39">
-        <f xml:space="preserve"> (L38 / L5)</f>
+        <f t="shared" si="2"/>
         <v>401.50862068965517</v>
       </c>
       <c r="M39">
-        <f xml:space="preserve"> (M38 / M5)</f>
+        <f t="shared" si="2"/>
         <v>401.50862068965517</v>
       </c>
       <c r="N39">
-        <f xml:space="preserve"> (N38 / N5)</f>
+        <f t="shared" si="2"/>
         <v>401.50862068965517</v>
       </c>
       <c r="O39">
-        <f xml:space="preserve"> (O38 / O5)</f>
+        <f t="shared" si="2"/>
         <v>401.50862068965517</v>
       </c>
       <c r="P39">
-        <f xml:space="preserve"> (P38 / P5)</f>
+        <f t="shared" si="2"/>
         <v>402.5390625</v>
       </c>
       <c r="Q39">
-        <f xml:space="preserve"> (Q38 / Q5)</f>
+        <f t="shared" si="2"/>
         <v>402.5390625</v>
       </c>
       <c r="R39">
-        <f xml:space="preserve"> (R38 / R5)</f>
+        <f t="shared" si="2"/>
         <v>375.40760869565219</v>
       </c>
       <c r="S39">
-        <f xml:space="preserve"> (S38 / S5)</f>
+        <f t="shared" si="2"/>
         <v>422.67857142857144</v>
       </c>
     </row>
@@ -2804,75 +2804,75 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <f>(B40 - B38)</f>
+        <f t="shared" ref="B41:S41" si="3">(B40 - B38)</f>
         <v>2989.75</v>
       </c>
       <c r="C41">
-        <f>(C40 - C38)</f>
+        <f t="shared" si="3"/>
         <v>278.75</v>
       </c>
       <c r="D41">
-        <f>(D40 - D38)</f>
+        <f t="shared" si="3"/>
         <v>2853.75</v>
       </c>
       <c r="E41">
-        <f>(E40 - E38)</f>
+        <f t="shared" si="3"/>
         <v>5633.75</v>
       </c>
       <c r="F41">
-        <f>(F40 - F38)</f>
+        <f t="shared" si="3"/>
         <v>478.75</v>
       </c>
       <c r="G41">
-        <f>(G40 - G38)</f>
+        <f t="shared" si="3"/>
         <v>3487.75</v>
       </c>
       <c r="H41">
-        <f>(H40 - H38)</f>
+        <f t="shared" si="3"/>
         <v>1096.75</v>
       </c>
       <c r="I41">
-        <f>(I40 - I38)</f>
+        <f t="shared" si="3"/>
         <v>5995.75</v>
       </c>
       <c r="J41">
-        <f>(J40 - J38)</f>
+        <f t="shared" si="3"/>
         <v>3571.75</v>
       </c>
       <c r="K41">
-        <f>(K40 - K38)</f>
+        <f t="shared" si="3"/>
         <v>421.75</v>
       </c>
       <c r="L41">
-        <f>(L40 - L38)</f>
+        <f t="shared" si="3"/>
         <v>2746.25</v>
       </c>
       <c r="M41">
-        <f>(M40 - M38)</f>
+        <f t="shared" si="3"/>
         <v>3316.25</v>
       </c>
       <c r="N41">
-        <f>(N40 - N38)</f>
+        <f t="shared" si="3"/>
         <v>1055.25</v>
       </c>
       <c r="O41">
-        <f>(O40 - O38)</f>
+        <f t="shared" si="3"/>
         <v>2599.25</v>
       </c>
       <c r="P41">
-        <f>(P40 - P38)</f>
+        <f t="shared" si="3"/>
         <v>1469.75</v>
       </c>
       <c r="Q41">
-        <f>(Q40 - Q38)</f>
+        <f t="shared" si="3"/>
         <v>3761.75</v>
       </c>
       <c r="R41">
-        <f>(R40 - R38)</f>
+        <f t="shared" si="3"/>
         <v>5517.25</v>
       </c>
       <c r="S41">
-        <f>(S40 - S38)</f>
+        <f t="shared" si="3"/>
         <v>1352.25</v>
       </c>
     </row>
@@ -2943,75 +2943,75 @@
         <v>8</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> (B43 / B5)</f>
+        <f t="shared" ref="B44:S44" si="4" xml:space="preserve"> (B43 / B5)</f>
         <v>78.269230769230774</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> (C43 / C5)</f>
+        <f t="shared" si="4"/>
         <v>78.269230769230774</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> (D43 / D5)</f>
+        <f t="shared" si="4"/>
         <v>78.269230769230774</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> (E43 / E5)</f>
+        <f t="shared" si="4"/>
         <v>78.269230769230774</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> (F43 / F5)</f>
+        <f t="shared" si="4"/>
         <v>78.269230769230774</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> (G43 / G5)</f>
+        <f t="shared" si="4"/>
         <v>75.166666666666671</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> (H43 / H5)</f>
+        <f t="shared" si="4"/>
         <v>75.166666666666671</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> (I43 / I5)</f>
+        <f t="shared" si="4"/>
         <v>75.166666666666671</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> (J43 / J5)</f>
+        <f t="shared" si="4"/>
         <v>75.166666666666671</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> (K43 / K5)</f>
+        <f t="shared" si="4"/>
         <v>79.961538461538467</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> (L43 / L5)</f>
+        <f t="shared" si="4"/>
         <v>78.517241379310349</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> (M43 / M5)</f>
+        <f t="shared" si="4"/>
         <v>78.517241379310349</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> (N43 / N5)</f>
+        <f t="shared" si="4"/>
         <v>78.517241379310349</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> (O43 / O5)</f>
+        <f t="shared" si="4"/>
         <v>78.517241379310349</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> (P43 / P5)</f>
+        <f t="shared" si="4"/>
         <v>78.71875</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> (Q43 / Q5)</f>
+        <f t="shared" si="4"/>
         <v>78.71875</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> (R43 / R5)</f>
+        <f t="shared" si="4"/>
         <v>73.413043478260875</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> (S43 / S5)</f>
+        <f t="shared" si="4"/>
         <v>82.657142857142858</v>
       </c>
     </row>
@@ -3079,75 +3079,75 @@
         <v>17</v>
       </c>
       <c r="B46">
-        <f>(B45 - B43)</f>
+        <f t="shared" ref="B46:S46" si="5">(B45 - B43)</f>
         <v>1943</v>
       </c>
       <c r="C46">
-        <f>(C45 - C43)</f>
+        <f t="shared" si="5"/>
         <v>975</v>
       </c>
       <c r="D46">
-        <f>(D45 - D43)</f>
+        <f t="shared" si="5"/>
         <v>1391</v>
       </c>
       <c r="E46">
-        <f>(E45 - E43)</f>
+        <f t="shared" si="5"/>
         <v>3140</v>
       </c>
       <c r="F46">
-        <f>(F45 - F43)</f>
+        <f t="shared" si="5"/>
         <v>1895</v>
       </c>
       <c r="G46">
-        <f>(G45 - G43)</f>
+        <f t="shared" si="5"/>
         <v>4682</v>
       </c>
       <c r="H46">
-        <f>(H45 - H43)</f>
+        <f t="shared" si="5"/>
         <v>2488</v>
       </c>
       <c r="I46">
-        <f>(I45 - I43)</f>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="J46">
-        <f>(J45 - J43)</f>
+        <f t="shared" si="5"/>
         <v>2446</v>
       </c>
       <c r="K46">
-        <f>(K45 - K43)</f>
+        <f t="shared" si="5"/>
         <v>970</v>
       </c>
       <c r="L46">
-        <f>(L45 - L43)</f>
+        <f t="shared" si="5"/>
         <v>1154</v>
       </c>
       <c r="M46">
-        <f>(M45 - M43)</f>
+        <f t="shared" si="5"/>
         <v>3400</v>
       </c>
       <c r="N46">
-        <f>(N45 - N43)</f>
+        <f t="shared" si="5"/>
         <v>2241</v>
       </c>
       <c r="O46">
-        <f>(O45 - O43)</f>
+        <f t="shared" si="5"/>
         <v>4351</v>
       </c>
       <c r="P46">
-        <f>(P45 - P43)</f>
+        <f t="shared" si="5"/>
         <v>2346</v>
       </c>
       <c r="Q46">
-        <f>(Q45 - Q43)</f>
+        <f t="shared" si="5"/>
         <v>477</v>
       </c>
       <c r="R46">
-        <f>(R45 - R43)</f>
+        <f t="shared" si="5"/>
         <v>4257</v>
       </c>
       <c r="S46">
-        <f>(S45 - S43)</f>
+        <f t="shared" si="5"/>
         <v>3660</v>
       </c>
     </row>
@@ -3218,75 +3218,75 @@
         <v>9</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49" si="0">(B48/B5)</f>
+        <f t="shared" ref="B49" si="6">(B48/B5)</f>
         <v>37.355769230769234</v>
       </c>
       <c r="C49">
-        <f>(C48/C5)</f>
+        <f t="shared" ref="C49:S49" si="7">(C48/C5)</f>
         <v>37.355769230769234</v>
       </c>
       <c r="D49">
-        <f>(D48/D5)</f>
+        <f t="shared" si="7"/>
         <v>37.355769230769234</v>
       </c>
       <c r="E49">
-        <f>(E48/E5)</f>
+        <f t="shared" si="7"/>
         <v>37.355769230769234</v>
       </c>
       <c r="F49">
-        <f>(F48/F5)</f>
+        <f t="shared" si="7"/>
         <v>37.355769230769234</v>
       </c>
       <c r="G49">
-        <f>(G48/G5)</f>
+        <f t="shared" si="7"/>
         <v>35.875</v>
       </c>
       <c r="H49">
-        <f>(H48/H5)</f>
+        <f t="shared" si="7"/>
         <v>35.875</v>
       </c>
       <c r="I49">
-        <f>(I48/I5)</f>
+        <f t="shared" si="7"/>
         <v>35.875</v>
       </c>
       <c r="J49">
-        <f>(J48/J5)</f>
+        <f t="shared" si="7"/>
         <v>35.875</v>
       </c>
       <c r="K49">
-        <f>(K48/K5)</f>
+        <f t="shared" si="7"/>
         <v>38.16346153846154</v>
       </c>
       <c r="L49">
-        <f>(L48/L5)</f>
+        <f t="shared" si="7"/>
         <v>37.474137931034484</v>
       </c>
       <c r="M49">
-        <f>(M48/M5)</f>
+        <f t="shared" si="7"/>
         <v>37.474137931034484</v>
       </c>
       <c r="N49">
-        <f>(N48/N5)</f>
+        <f t="shared" si="7"/>
         <v>37.474137931034484</v>
       </c>
       <c r="O49">
-        <f>(O48/O5)</f>
+        <f t="shared" si="7"/>
         <v>37.474137931034484</v>
       </c>
       <c r="P49">
-        <f>(P48/P5)</f>
+        <f t="shared" si="7"/>
         <v>37.5703125</v>
       </c>
       <c r="Q49">
-        <f>(Q48/Q5)</f>
+        <f t="shared" si="7"/>
         <v>37.5703125</v>
       </c>
       <c r="R49">
-        <f>(R48/R5)</f>
+        <f t="shared" si="7"/>
         <v>35.038043478260867</v>
       </c>
       <c r="S49">
-        <f>(S48/S5)</f>
+        <f t="shared" si="7"/>
         <v>39.450000000000003</v>
       </c>
     </row>
@@ -3354,75 +3354,75 @@
         <v>15</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" si="1">(B50-B48)</f>
+        <f t="shared" ref="B51" si="8">(B50-B48)</f>
         <v>1038.75</v>
       </c>
       <c r="C51">
-        <f>(C50-C48)</f>
+        <f t="shared" ref="C51:S51" si="9">(C50-C48)</f>
         <v>612.75</v>
       </c>
       <c r="D51">
-        <f>(D50-D48)</f>
+        <f t="shared" si="9"/>
         <v>1491.75</v>
       </c>
       <c r="E51">
-        <f>(E50-E48)</f>
+        <f t="shared" si="9"/>
         <v>717.75</v>
       </c>
       <c r="F51">
-        <f>(F50-F48)</f>
+        <f t="shared" si="9"/>
         <v>189.75</v>
       </c>
       <c r="G51">
-        <f>(G50-G48)</f>
+        <f t="shared" si="9"/>
         <v>720.75</v>
       </c>
       <c r="H51">
-        <f>(H50-H48)</f>
+        <f t="shared" si="9"/>
         <v>457.75</v>
       </c>
       <c r="I51">
-        <f>(I50-I48)</f>
+        <f t="shared" si="9"/>
         <v>1724.75</v>
       </c>
       <c r="J51">
-        <f>(J50-J48)</f>
+        <f t="shared" si="9"/>
         <v>1289.75</v>
       </c>
       <c r="K51">
-        <f>(K50-K48)</f>
+        <f t="shared" si="9"/>
         <v>522.75</v>
       </c>
       <c r="L51">
-        <f>(L50-L48)</f>
+        <f t="shared" si="9"/>
         <v>1505.25</v>
       </c>
       <c r="M51">
-        <f>(M50-M48)</f>
+        <f t="shared" si="9"/>
         <v>948.25</v>
       </c>
       <c r="N51">
-        <f>(N50-N48)</f>
+        <f t="shared" si="9"/>
         <v>181.25</v>
       </c>
       <c r="O51">
-        <f>(O50-O48)</f>
+        <f t="shared" si="9"/>
         <v>618.25</v>
       </c>
       <c r="P51">
-        <f>(P50-P48)</f>
+        <f t="shared" si="9"/>
         <v>303.75</v>
       </c>
       <c r="Q51">
-        <f>(Q50-Q48)</f>
+        <f t="shared" si="9"/>
         <v>1425.75</v>
       </c>
       <c r="R51">
-        <f>(R50-R48)</f>
+        <f t="shared" si="9"/>
         <v>648.25</v>
       </c>
       <c r="S51">
-        <f>(S50-S48)</f>
+        <f t="shared" si="9"/>
         <v>1369.25</v>
       </c>
     </row>
@@ -3494,75 +3494,75 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54" si="2">(B53/B5)</f>
+        <f t="shared" ref="B54" si="10">(B53/B5)</f>
         <v>80.04807692307692</v>
       </c>
       <c r="C54">
-        <f>(C53/C5)</f>
+        <f t="shared" ref="C54:S54" si="11">(C53/C5)</f>
         <v>80.04807692307692</v>
       </c>
       <c r="D54">
-        <f>(D53/D5)</f>
+        <f t="shared" si="11"/>
         <v>80.04807692307692</v>
       </c>
       <c r="E54">
-        <f>(E53/E5)</f>
+        <f t="shared" si="11"/>
         <v>80.04807692307692</v>
       </c>
       <c r="F54">
-        <f>(F53/F5)</f>
+        <f t="shared" si="11"/>
         <v>80.04807692307692</v>
       </c>
       <c r="G54">
-        <f>(G53/G5)</f>
+        <f t="shared" si="11"/>
         <v>76.875</v>
       </c>
       <c r="H54">
-        <f>(H53/H5)</f>
+        <f t="shared" si="11"/>
         <v>76.875</v>
       </c>
       <c r="I54">
-        <f>(I53/I5)</f>
+        <f t="shared" si="11"/>
         <v>76.875</v>
       </c>
       <c r="J54">
-        <f>(J53/J5)</f>
+        <f t="shared" si="11"/>
         <v>76.875</v>
       </c>
       <c r="K54">
-        <f>(K53/K5)</f>
+        <f t="shared" si="11"/>
         <v>81.77884615384616</v>
       </c>
       <c r="L54">
-        <f>(L53/L5)</f>
+        <f t="shared" si="11"/>
         <v>80.301724137931032</v>
       </c>
       <c r="M54">
-        <f>(M53/M5)</f>
+        <f t="shared" si="11"/>
         <v>80.301724137931032</v>
       </c>
       <c r="N54">
-        <f>(N53/N5)</f>
+        <f t="shared" si="11"/>
         <v>80.301724137931032</v>
       </c>
       <c r="O54">
-        <f>(O53/O5)</f>
+        <f t="shared" si="11"/>
         <v>80.301724137931032</v>
       </c>
       <c r="P54">
-        <f>(P53/P5)</f>
+        <f t="shared" si="11"/>
         <v>80.5078125</v>
       </c>
       <c r="Q54">
-        <f>(Q53/Q5)</f>
+        <f t="shared" si="11"/>
         <v>80.5078125</v>
       </c>
       <c r="R54">
-        <f>(R53/R5)</f>
+        <f t="shared" si="11"/>
         <v>75.081521739130437</v>
       </c>
       <c r="S54">
-        <f>(S53/S5)</f>
+        <f t="shared" si="11"/>
         <v>84.535714285714292</v>
       </c>
     </row>
@@ -3664,75 +3664,75 @@
         <v>13</v>
       </c>
       <c r="B56">
-        <f>(B55-B53)</f>
+        <f t="shared" ref="B56:S56" si="12">(B55-B53)</f>
         <v>2020.75</v>
       </c>
       <c r="C56">
-        <f>(C55-C53)</f>
+        <f t="shared" si="12"/>
         <v>1908.75</v>
       </c>
       <c r="D56">
-        <f>(D55-D53)</f>
+        <f t="shared" si="12"/>
         <v>2013.75</v>
       </c>
       <c r="E56">
-        <f>(E55-E53)</f>
+        <f t="shared" si="12"/>
         <v>1466.75</v>
       </c>
       <c r="F56">
-        <f>(F55-F53)</f>
+        <f t="shared" si="12"/>
         <v>295.75</v>
       </c>
       <c r="G56">
-        <f>(G55-G53)</f>
+        <f t="shared" si="12"/>
         <v>2142.75</v>
       </c>
       <c r="H56">
-        <f>(H55-H53)</f>
+        <f t="shared" si="12"/>
         <v>3617.75</v>
       </c>
       <c r="I56">
-        <f>(I55-I53)</f>
+        <f t="shared" si="12"/>
         <v>1667.75</v>
       </c>
       <c r="J56">
-        <f>(J55-J53)</f>
+        <f t="shared" si="12"/>
         <v>2463.75</v>
       </c>
       <c r="K56">
-        <f>(K55-K53)</f>
+        <f t="shared" si="12"/>
         <v>1994.75</v>
       </c>
       <c r="L56">
-        <f>(L55-L53)</f>
+        <f t="shared" si="12"/>
         <v>1979.25</v>
       </c>
       <c r="M56">
-        <f>(M55-M53)</f>
+        <f t="shared" si="12"/>
         <v>1522.25</v>
       </c>
       <c r="N56">
-        <f>(N55-N53)</f>
+        <f t="shared" si="12"/>
         <v>1405.25</v>
       </c>
       <c r="O56">
-        <f>(O55-O53)</f>
+        <f t="shared" si="12"/>
         <v>1897.25</v>
       </c>
       <c r="P56">
-        <f>(P55-P53)</f>
+        <f t="shared" si="12"/>
         <v>583.75</v>
       </c>
       <c r="Q56">
-        <f>(Q55-Q53)</f>
+        <f t="shared" si="12"/>
         <v>2179.75</v>
       </c>
       <c r="R56">
-        <f>(R55-R53)</f>
+        <f t="shared" si="12"/>
         <v>1831.25</v>
       </c>
       <c r="S56">
-        <f>(S55-S53)</f>
+        <f t="shared" si="12"/>
         <v>4655.25</v>
       </c>
       <c r="AE56" s="1"/>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
@@ -3817,7 +3817,7 @@
         <v>33</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B66" si="3">SUM(F64:J64)</f>
+        <f t="shared" ref="B64:B66" si="13">SUM(F64:J64)</f>
         <v>33199</v>
       </c>
       <c r="F64">
@@ -3832,7 +3832,7 @@
         <v>34</v>
       </c>
       <c r="B65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>27060</v>
       </c>
       <c r="F65">
@@ -3847,7 +3847,7 @@
         <v>39</v>
       </c>
       <c r="B66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2047236</v>
       </c>
       <c r="F66">
@@ -3897,7 +3897,7 @@
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C69">
         <f>SUM(F69:J69)/1000</f>
@@ -3918,10 +3918,10 @@
         <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:C127" si="4">SUM(F70:J70)/1000</f>
+        <f t="shared" ref="C70:C127" si="14">SUM(F70:J70)/1000</f>
         <v>41.423999999999999</v>
       </c>
       <c r="E70" t="s">
@@ -3939,10 +3939,10 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>210.11</v>
       </c>
       <c r="E71" t="s">
@@ -3960,10 +3960,10 @@
         <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>158.52799999999999</v>
       </c>
       <c r="E72" t="s">
@@ -3981,10 +3981,10 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>54.5</v>
       </c>
       <c r="E73" t="s">
@@ -4002,10 +4002,10 @@
         <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>70.656000000000006</v>
       </c>
       <c r="E74" t="s">
@@ -4023,10 +4023,10 @@
         <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>224.9</v>
       </c>
       <c r="E75" t="s">
@@ -4044,10 +4044,10 @@
         <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>8.4</v>
       </c>
       <c r="E76" t="s">
@@ -4065,10 +4065,10 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>216.06</v>
       </c>
       <c r="E77" t="s">
@@ -4086,10 +4086,10 @@
         <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="E78" t="s">
@@ -4107,10 +4107,10 @@
         <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>27.327999999999999</v>
       </c>
       <c r="E79" t="s">
@@ -4128,10 +4128,10 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>80.941999999999993</v>
       </c>
       <c r="E80" t="s">
@@ -4149,10 +4149,10 @@
         <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>597.92399999999998</v>
       </c>
       <c r="E81" t="s">
@@ -4170,10 +4170,10 @@
         <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>317.392</v>
       </c>
       <c r="E82" t="s">
@@ -4191,10 +4191,10 @@
         <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>420.28</v>
       </c>
       <c r="E83" t="s">
@@ -4212,10 +4212,10 @@
         <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>159.19999999999999</v>
       </c>
       <c r="E84" t="s">
@@ -4233,10 +4233,10 @@
         <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>27.9</v>
       </c>
       <c r="E85" t="s">
@@ -4254,10 +4254,10 @@
         <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>3.15</v>
       </c>
       <c r="E86" t="s">
@@ -4275,10 +4275,10 @@
         <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>101.374</v>
       </c>
       <c r="E87" t="s">
@@ -4296,10 +4296,10 @@
         <v>64</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>7.5640000000000001</v>
       </c>
       <c r="E88" t="s">
@@ -4317,10 +4317,10 @@
         <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>59.597999999999999</v>
       </c>
       <c r="E89" t="s">
@@ -4338,10 +4338,10 @@
         <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>204</v>
       </c>
       <c r="E90" t="s">
@@ -4359,10 +4359,10 @@
         <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>219.68</v>
       </c>
       <c r="E91" t="s">
@@ -4380,10 +4380,10 @@
         <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>141.29</v>
       </c>
       <c r="E92" t="s">
@@ -4401,10 +4401,10 @@
         <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>63.107999999999997</v>
       </c>
       <c r="E93" t="s">
@@ -4422,10 +4422,10 @@
         <v>70</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>70.64</v>
       </c>
       <c r="E94" t="s">
@@ -4443,10 +4443,10 @@
         <v>71</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>24.48</v>
       </c>
       <c r="E95" t="s">
@@ -4464,10 +4464,10 @@
         <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>16.8</v>
       </c>
       <c r="E96" t="s">
@@ -4485,10 +4485,10 @@
         <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>124.684</v>
       </c>
       <c r="E97" t="s">
@@ -4506,10 +4506,10 @@
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>116.59399999999999</v>
       </c>
       <c r="E98" t="s">
@@ -4527,10 +4527,10 @@
         <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>56.856000000000002</v>
       </c>
       <c r="E99" t="s">
@@ -4548,10 +4548,10 @@
         <v>76</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E100" t="s">
@@ -4569,10 +4569,10 @@
         <v>77</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>9.5760000000000005</v>
       </c>
       <c r="E101" t="s">
@@ -4590,10 +4590,10 @@
         <v>78</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>51.692</v>
       </c>
       <c r="E102" t="s">
@@ -4611,10 +4611,10 @@
         <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>167.58</v>
       </c>
       <c r="E103" t="s">
@@ -4632,10 +4632,10 @@
         <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>93.024000000000001</v>
       </c>
       <c r="E104" t="s">
@@ -4653,10 +4653,10 @@
         <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>86.581999999999994</v>
       </c>
       <c r="E105" t="s">
@@ -4674,10 +4674,10 @@
         <v>82</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>26.527999999999999</v>
       </c>
       <c r="E106" t="s">
@@ -4695,10 +4695,10 @@
         <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>76.463999999999999</v>
       </c>
       <c r="E107" t="s">
@@ -4716,10 +4716,10 @@
         <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>108.116</v>
       </c>
       <c r="E108" t="s">
@@ -4737,10 +4737,10 @@
         <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="E109" t="s">
@@ -4758,10 +4758,10 @@
         <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>160.34800000000001</v>
       </c>
       <c r="E110" t="s">
@@ -4779,10 +4779,10 @@
         <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>17.574000000000002</v>
       </c>
       <c r="E111" t="s">
@@ -4800,10 +4800,10 @@
         <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>22.83</v>
       </c>
       <c r="E112" t="s">
@@ -4821,10 +4821,10 @@
         <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>5.556</v>
       </c>
       <c r="E113" t="s">
@@ -4842,10 +4842,10 @@
         <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>101.75</v>
       </c>
       <c r="E114" t="s">
@@ -4863,10 +4863,10 @@
         <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>48.72</v>
       </c>
       <c r="E115" t="s">
@@ -4884,10 +4884,10 @@
         <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E116" t="s">
@@ -4905,10 +4905,10 @@
         <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>199.5</v>
       </c>
       <c r="E117" t="s">
@@ -4926,10 +4926,10 @@
         <v>94</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>144.80000000000001</v>
       </c>
       <c r="E118" t="s">
@@ -4947,10 +4947,10 @@
         <v>95</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>26.724</v>
       </c>
       <c r="E119" t="s">
@@ -4968,10 +4968,10 @@
         <v>96</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>166.4</v>
       </c>
       <c r="E120" t="s">
@@ -4989,10 +4989,10 @@
         <v>97</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>150.096</v>
       </c>
       <c r="E121" t="s">
@@ -5010,10 +5010,10 @@
         <v>98</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="E122" t="s">
@@ -5031,10 +5031,10 @@
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>88.2</v>
       </c>
       <c r="E123" t="s">
@@ -5052,10 +5052,10 @@
         <v>100</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>73.2</v>
       </c>
       <c r="E124" t="s">
@@ -5073,10 +5073,10 @@
         <v>101</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>12.682</v>
       </c>
       <c r="E125" t="s">
@@ -5094,10 +5094,10 @@
         <v>102</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>13.055999999999999</v>
       </c>
       <c r="E126" t="s">
@@ -5115,10 +5115,10 @@
         <v>103</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>55.776000000000003</v>
       </c>
       <c r="E127" t="s">

--- a/Documentation/output.xlsx
+++ b/Documentation/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479AF35-E416-4654-A5B4-B3B39B62B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C680BC3-C978-4E28-89B4-9A69998E4E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{469EA8D7-BADF-4FE6-9F5F-7436887DFADC}"/>
   </bookViews>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D68805-6F1E-4113-A128-70B3B00308D9}">
   <dimension ref="A1:BN127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
